--- a/PulteContracts1.xlsx
+++ b/PulteContracts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Contracts - Python\Pulte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u3cle\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB0695B-1288-4C7D-8803-9393CFE798B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BEC2F5-1A68-4142-AA7A-B7F1D3122662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0BAEDB1-F528-407E-B303-5565C8C44819}"/>
   </bookViews>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B78F50-330E-49D8-B45B-70C114F0588A}">
   <dimension ref="A1:E1479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A716" workbookViewId="0">
-      <selection activeCell="F747" sqref="F747"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>3569</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">

--- a/PulteContracts1.xlsx
+++ b/PulteContracts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u3cle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AL-FP01\Users\alejandroe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BEC2F5-1A68-4142-AA7A-B7F1D3122662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE54E4-A03C-426D-A163-E0AB0EBAFABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0BAEDB1-F528-407E-B303-5565C8C44819}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4863" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="252">
   <si>
     <t>Community</t>
   </si>
@@ -770,6 +770,30 @@
   <si>
     <t>PVO-74408</t>
   </si>
+  <si>
+    <t>Carmel Cliff</t>
+  </si>
+  <si>
+    <t>5528-2 Casena</t>
+  </si>
+  <si>
+    <t>70706-LS</t>
+  </si>
+  <si>
+    <t>70706-PV</t>
+  </si>
+  <si>
+    <t>LSO-7440</t>
+  </si>
+  <si>
+    <t>5536-2-Matera</t>
+  </si>
+  <si>
+    <t>5539-2-Pesaro</t>
+  </si>
+  <si>
+    <t>5545-1-Victoria</t>
+  </si>
 </sst>
 </file>
 
@@ -841,8 +865,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9490378E-B1E0-40BD-B84F-BC9D6E3DB9F8}" name="Table1" displayName="Table1" ref="A1:E1479" totalsRowShown="0">
-  <autoFilter ref="A1:E1479" xr:uid="{9490378E-B1E0-40BD-B84F-BC9D6E3DB9F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9490378E-B1E0-40BD-B84F-BC9D6E3DB9F8}" name="Table1" displayName="Table1" ref="A1:E1531" totalsRowShown="0">
+  <autoFilter ref="A1:E1531" xr:uid="{9490378E-B1E0-40BD-B84F-BC9D6E3DB9F8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1479">
     <sortCondition ref="A1:A1479"/>
   </sortState>
@@ -1174,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B78F50-330E-49D8-B45B-70C114F0588A}">
-  <dimension ref="A1:E1479"/>
+  <dimension ref="A1:E1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26329,6 +26353,890 @@
       </c>
       <c r="E1479">
         <v>241</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1480">
+        <v>7362</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1480">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1481">
+        <v>7362</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1481">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1482">
+        <v>7362</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1482">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1483">
+        <v>7362</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1483">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1484">
+        <v>7362</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1484">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1485">
+        <v>7362</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1486">
+        <v>7362</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1486">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1487">
+        <v>7362</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1487">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1488">
+        <v>7362</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1488">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1489">
+        <v>7362</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1489">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1490">
+        <v>7362</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1490">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1491" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1491">
+        <v>7362</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1491">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1492" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1492">
+        <v>7362</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1492">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1493" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1493">
+        <v>7362</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1493">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1494" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1494">
+        <v>7362</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1494">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1495" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1495">
+        <v>7362</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1495">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1496" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1496">
+        <v>7362</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1496">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1497" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1497">
+        <v>7362</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1497">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1498" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1498">
+        <v>7362</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1498">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1499" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1499">
+        <v>7362</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1500" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1500">
+        <v>7362</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1501" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1501">
+        <v>7362</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1502" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1502">
+        <v>7362</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1502">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1503" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1503">
+        <v>7362</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1504" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1504">
+        <v>7362</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1504">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1505" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1505">
+        <v>7362</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1505">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1506" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1506">
+        <v>7362</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1506">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1507" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1507">
+        <v>7362</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1507">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1508" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1508">
+        <v>7362</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1508">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1509" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1509">
+        <v>7362</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1509">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1510" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1510">
+        <v>7362</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1510">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1511" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1511">
+        <v>7362</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1512" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1512">
+        <v>7362</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1512">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1513" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1513">
+        <v>7362</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1514" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1514">
+        <v>7362</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1515">
+        <v>7362</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1515">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1516" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1516">
+        <v>7362</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1517">
+        <v>7362</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1517">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1518">
+        <v>7362</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1518">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1519">
+        <v>7362</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1519">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1520">
+        <v>7362</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1520">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1521">
+        <v>7362</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1521">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1522">
+        <v>7362</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1522">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1523">
+        <v>7362</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1523">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1524">
+        <v>7362</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1525">
+        <v>7362</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1525">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1526">
+        <v>7362</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1527">
+        <v>7362</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1528">
+        <v>7362</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1528">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1529">
+        <v>7362</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1529">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1530">
+        <v>7362</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1530">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1531">
+        <v>7362</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1531">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/PulteContracts1.xlsx
+++ b/PulteContracts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AL-FP01\Users\alejandroe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D407B24-E404-4F85-9B5F-6797C36BE714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24986432-3641-4DB5-8B14-F3010D67B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0BAEDB1-F528-407E-B303-5565C8C44819}"/>
   </bookViews>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B78F50-330E-49D8-B45B-70C114F0588A}">
   <dimension ref="A1:E1867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A790" workbookViewId="0">
-      <selection activeCell="H814" sqref="H814"/>
+    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="O650" sqref="O650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12080,7 +12080,7 @@
         <v>9</v>
       </c>
       <c r="E634">
-        <v>1461</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">

--- a/PulteContracts1.xlsx
+++ b/PulteContracts1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AL-FP01\Users\alejandroe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24986432-3641-4DB5-8B14-F3010D67B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F54E2C-2313-4F3D-BC40-FE42E04E97FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0BAEDB1-F528-407E-B303-5565C8C44819}"/>
   </bookViews>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B78F50-330E-49D8-B45B-70C114F0588A}">
   <dimension ref="A1:E1867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="O650" sqref="O650"/>
+    <sheetView tabSelected="1" topLeftCell="A1075" workbookViewId="0">
+      <selection activeCell="J1089" sqref="J1089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22450,7 +22450,7 @@
         <v>26</v>
       </c>
       <c r="E1244">
-        <v>2290</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
@@ -22569,7 +22569,7 @@
         <v>26</v>
       </c>
       <c r="E1251">
-        <v>2239</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1252" spans="1:5" x14ac:dyDescent="0.25">
@@ -22688,7 +22688,7 @@
         <v>26</v>
       </c>
       <c r="E1258">
-        <v>1652</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1259" spans="1:5" x14ac:dyDescent="0.25">

--- a/PulteContracts1.xlsx
+++ b/PulteContracts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AL-FP01\Users\alejandroe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B01214-053D-45A9-9B94-9E77E3089F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA8A7DA-1228-4045-BF1D-FA43B4C74C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0BAEDB1-F528-407E-B303-5565C8C44819}"/>
   </bookViews>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B78F50-330E-49D8-B45B-70C114F0588A}">
   <dimension ref="A1:E3339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A1101" workbookViewId="0">
+      <selection activeCell="N1119" sqref="N1118:N1119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20145,7 +20145,7 @@
         <v>270</v>
       </c>
       <c r="B1108">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="C1108" t="s">
         <v>275</v>

--- a/PulteContracts1.xlsx
+++ b/PulteContracts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AL-FP01\Users\alejandroe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378545B1-5B41-454B-AC5E-FB89B1B0C245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47E3BAB-53E1-4CC9-8826-1F002A5F087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0BAEDB1-F528-407E-B303-5565C8C44819}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B78F50-330E-49D8-B45B-70C114F0588A}">
   <dimension ref="A1:E3324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1727" workbookViewId="0">
-      <selection activeCell="L1741" sqref="L1741"/>
+    <sheetView tabSelected="1" topLeftCell="A783" workbookViewId="0">
+      <selection activeCell="M792" sqref="M792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14932,7 +14932,7 @@
         <v>9</v>
       </c>
       <c r="E801" s="2">
-        <v>4024</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
@@ -14949,7 +14949,7 @@
         <v>26</v>
       </c>
       <c r="E802" s="2">
-        <v>4504</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">

--- a/PulteContracts1.xlsx
+++ b/PulteContracts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Accounting\AR\White Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325812A4-35D4-4EE7-ACCB-937C6022BBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5440B21B-7B10-4222-A909-9C19A0E5A056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0BAEDB1-F528-407E-B303-5565C8C44819}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11042" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11552" uniqueCount="333">
   <si>
     <t>Community</t>
   </si>
@@ -1215,8 +1215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9490378E-B1E0-40BD-B84F-BC9D6E3DB9F8}" name="Table1" displayName="Table1" ref="A1:F3506" totalsRowShown="0">
-  <autoFilter ref="A1:F3506" xr:uid="{9490378E-B1E0-40BD-B84F-BC9D6E3DB9F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9490378E-B1E0-40BD-B84F-BC9D6E3DB9F8}" name="Table1" displayName="Table1" ref="A1:F3676" totalsRowShown="0">
+  <autoFilter ref="A1:F3676" xr:uid="{9490378E-B1E0-40BD-B84F-BC9D6E3DB9F8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F3506">
     <sortCondition ref="A1:A3506"/>
   </sortState>
@@ -1549,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B78F50-330E-49D8-B45B-70C114F0588A}">
-  <dimension ref="A1:F3506"/>
+  <dimension ref="A1:F3676"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A3629" workbookViewId="0">
+      <selection activeCell="E3669" sqref="E3669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71683,6 +71683,3406 @@
       </c>
       <c r="F3506" s="26">
         <v>2028</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3507" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3507">
+        <v>8354</v>
+      </c>
+      <c r="C3507" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3507" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3507" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3507" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3508" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3508">
+        <v>8354</v>
+      </c>
+      <c r="C3508" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3508" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3508" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3508" s="2">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3509" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3509">
+        <v>8354</v>
+      </c>
+      <c r="C3509" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3509" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3509" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3509" s="2">
+        <v>6316</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3510" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3510">
+        <v>8354</v>
+      </c>
+      <c r="C3510" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3510" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3510" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3510" s="2">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3511" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3511">
+        <v>8354</v>
+      </c>
+      <c r="C3511" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3511" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3511" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3511" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3512" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3512">
+        <v>8354</v>
+      </c>
+      <c r="C3512" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3512" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3512" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3512" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3513" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3513">
+        <v>8354</v>
+      </c>
+      <c r="C3513" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3513" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3513" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3513" s="2">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3514" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3514">
+        <v>8354</v>
+      </c>
+      <c r="C3514" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3514" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3514" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3514" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3515" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3515">
+        <v>8354</v>
+      </c>
+      <c r="C3515" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3515" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3515" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3515" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3516" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3516">
+        <v>8354</v>
+      </c>
+      <c r="C3516" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3516" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3516" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3516" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3517" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3517">
+        <v>8354</v>
+      </c>
+      <c r="C3517" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3517" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3517" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3517" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3518" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3518">
+        <v>8354</v>
+      </c>
+      <c r="C3518" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3518" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3518" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3518" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3519" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3519">
+        <v>8354</v>
+      </c>
+      <c r="C3519" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3519" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3519" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3519" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3520" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3520">
+        <v>8354</v>
+      </c>
+      <c r="C3520" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3520" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3520" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3520" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3521" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3521">
+        <v>8354</v>
+      </c>
+      <c r="C3521" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3521" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3521" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3521" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3522" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3522">
+        <v>8354</v>
+      </c>
+      <c r="C3522" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3522" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3522" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3522" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3523" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3523">
+        <v>8354</v>
+      </c>
+      <c r="C3523" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3523" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3523" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3523" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3524" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3524">
+        <v>8354</v>
+      </c>
+      <c r="C3524" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3524" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3524" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3524" s="2">
+        <v>-549</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3525" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3525">
+        <v>8354</v>
+      </c>
+      <c r="C3525" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3525" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3525" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3525" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3526" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3526">
+        <v>8354</v>
+      </c>
+      <c r="C3526" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3526" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3526" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3526" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3527" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3527">
+        <v>8354</v>
+      </c>
+      <c r="C3527" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3527" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3527" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3527" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3528" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3528">
+        <v>8354</v>
+      </c>
+      <c r="C3528" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3528" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3528" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3528" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3529" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3529">
+        <v>8354</v>
+      </c>
+      <c r="C3529" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3529" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3529" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3529" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3530" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3530">
+        <v>8354</v>
+      </c>
+      <c r="C3530" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3530" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3530" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3530" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3531" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3531">
+        <v>8354</v>
+      </c>
+      <c r="C3531" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3531" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3531" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3531" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3532" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3532">
+        <v>8354</v>
+      </c>
+      <c r="C3532" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3532" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3532" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3532" s="2">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3533" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3533">
+        <v>8354</v>
+      </c>
+      <c r="C3533" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3533" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3533" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3533" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3534" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3534">
+        <v>8354</v>
+      </c>
+      <c r="C3534" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3534" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3534" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3534" s="2">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3535" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3535">
+        <v>8354</v>
+      </c>
+      <c r="C3535" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3535" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3535" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3535" s="2">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3536" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3536">
+        <v>8354</v>
+      </c>
+      <c r="C3536" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3536" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3536" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3536" s="2">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3537" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3537">
+        <v>8354</v>
+      </c>
+      <c r="C3537" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3537" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3537" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3537" s="2">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3538" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3538">
+        <v>8354</v>
+      </c>
+      <c r="C3538" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3538" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3538" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3538" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3539" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3539">
+        <v>8354</v>
+      </c>
+      <c r="C3539" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3539" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3539" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3539" s="2">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3540" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3540">
+        <v>8354</v>
+      </c>
+      <c r="C3540" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3540" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3540" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3540" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3541" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3541">
+        <v>8354</v>
+      </c>
+      <c r="C3541" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3541" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3541" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3541" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3542" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3542">
+        <v>8354</v>
+      </c>
+      <c r="C3542" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3542" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3542" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3542" s="2">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3543" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3543">
+        <v>8354</v>
+      </c>
+      <c r="C3543" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3543" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3543" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3543" s="2">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3544" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3544">
+        <v>8354</v>
+      </c>
+      <c r="C3544" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3544" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3544" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3544" s="2">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3545" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3545">
+        <v>8354</v>
+      </c>
+      <c r="C3545" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3545" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3545" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3545" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3546" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3546">
+        <v>8354</v>
+      </c>
+      <c r="C3546" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3546" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3546" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3546" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3547" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3547">
+        <v>8354</v>
+      </c>
+      <c r="C3547" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3547" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3547" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3547" s="2">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3548" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3548">
+        <v>8354</v>
+      </c>
+      <c r="C3548" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3548" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3548" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3548" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3549" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3549">
+        <v>8354</v>
+      </c>
+      <c r="C3549" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3549" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3549" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3549" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3550" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3550">
+        <v>8354</v>
+      </c>
+      <c r="C3550" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3550" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3550" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3550" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3551" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3551">
+        <v>8354</v>
+      </c>
+      <c r="C3551" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3551" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3551" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3551" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3552" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3552">
+        <v>8354</v>
+      </c>
+      <c r="C3552" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3552" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3552" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3552" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3553" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3553">
+        <v>8354</v>
+      </c>
+      <c r="C3553" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3553" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3553" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3553" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3554" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3554">
+        <v>8354</v>
+      </c>
+      <c r="C3554" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3554" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3554" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3554" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3555" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3555">
+        <v>8354</v>
+      </c>
+      <c r="C3555" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3555" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3555" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3555" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3556" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3556">
+        <v>8354</v>
+      </c>
+      <c r="C3556" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3556" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3556" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3556" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3557" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3557">
+        <v>8354</v>
+      </c>
+      <c r="C3557" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3557" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3557" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3557" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3558" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3558">
+        <v>8354</v>
+      </c>
+      <c r="C3558" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3558" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3558" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3558" s="2">
+        <v>-457</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3559" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3559">
+        <v>8354</v>
+      </c>
+      <c r="C3559" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3559" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3559" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3559" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3560" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3560">
+        <v>8354</v>
+      </c>
+      <c r="C3560" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3560" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3560" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3560" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3561" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3561">
+        <v>8354</v>
+      </c>
+      <c r="C3561" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3561" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3561" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3561" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3562" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3562">
+        <v>8354</v>
+      </c>
+      <c r="C3562" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3562" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3562" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3562" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3563" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3563">
+        <v>8354</v>
+      </c>
+      <c r="C3563" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3563" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3563" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3563" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3564" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3564">
+        <v>8354</v>
+      </c>
+      <c r="C3564" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3564" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3564" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3564" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3565" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3565">
+        <v>8354</v>
+      </c>
+      <c r="C3565" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3565" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3565" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3565" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3566" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3566">
+        <v>8354</v>
+      </c>
+      <c r="C3566" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3566" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3566" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3566" s="2">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3567" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3567">
+        <v>8354</v>
+      </c>
+      <c r="C3567" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3567" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3567" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3567" s="2">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3568" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3568">
+        <v>8354</v>
+      </c>
+      <c r="C3568" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3568" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3568" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3568" s="2">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3569" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3569">
+        <v>8354</v>
+      </c>
+      <c r="C3569" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3569" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3569" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3569" s="2">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3570" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3570">
+        <v>8354</v>
+      </c>
+      <c r="C3570" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3570" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3570" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3570" s="2">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3571" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3571">
+        <v>8354</v>
+      </c>
+      <c r="C3571" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3571" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3571" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3571" s="2">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3572" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3572">
+        <v>8354</v>
+      </c>
+      <c r="C3572" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3572" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3572" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3572" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3573" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3573">
+        <v>8354</v>
+      </c>
+      <c r="C3573" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3573" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3573" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3573" s="2">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3574" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3574">
+        <v>8354</v>
+      </c>
+      <c r="C3574" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3574" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3574" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3574" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3575" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3575">
+        <v>8354</v>
+      </c>
+      <c r="C3575" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3575" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3575" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3575" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3576" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3576">
+        <v>8354</v>
+      </c>
+      <c r="C3576" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3576" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3576" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3576" s="2">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3577" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3577">
+        <v>8354</v>
+      </c>
+      <c r="C3577" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3577" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3577" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3577" s="2">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3578" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3578">
+        <v>8354</v>
+      </c>
+      <c r="C3578" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3578" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3578" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3578" s="2">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3579" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3579">
+        <v>8354</v>
+      </c>
+      <c r="C3579" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3579" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3579" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3579" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3580" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3580">
+        <v>8354</v>
+      </c>
+      <c r="C3580" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3580" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3580" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3580" s="2">
+        <v>-461</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3581" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3581">
+        <v>8354</v>
+      </c>
+      <c r="C3581" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3581" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3581" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3581" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3582" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3582">
+        <v>8354</v>
+      </c>
+      <c r="C3582" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3582" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3582" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3582" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3583" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3583">
+        <v>8354</v>
+      </c>
+      <c r="C3583" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3583" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3583" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3583" s="2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3584" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3584">
+        <v>8354</v>
+      </c>
+      <c r="C3584" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3584" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3584" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3584" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3585" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3585">
+        <v>8354</v>
+      </c>
+      <c r="C3585" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3585" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3585" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3585" s="2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3586" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3586">
+        <v>8354</v>
+      </c>
+      <c r="C3586" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3586" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3586" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3586" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3587" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3587">
+        <v>8354</v>
+      </c>
+      <c r="C3587" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3587" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3587" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3587" s="2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3588" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3588">
+        <v>8354</v>
+      </c>
+      <c r="C3588" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3588" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3588" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3588" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3589" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3589">
+        <v>8354</v>
+      </c>
+      <c r="C3589" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3589" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3589" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3589" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3590" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3590">
+        <v>8354</v>
+      </c>
+      <c r="C3590" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3590" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3590" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3590" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3591" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3591">
+        <v>8354</v>
+      </c>
+      <c r="C3591" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3591" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3591" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3591" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3592" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3592">
+        <v>8354</v>
+      </c>
+      <c r="C3592" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3592" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3592" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3592" s="2">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3593" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3593">
+        <v>8354</v>
+      </c>
+      <c r="C3593" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3593" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3593" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3593" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3594" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3594">
+        <v>8354</v>
+      </c>
+      <c r="C3594" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3594" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3594" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3594" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3595" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3595">
+        <v>8354</v>
+      </c>
+      <c r="C3595" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3595" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3595" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3595" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3596" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3596">
+        <v>8354</v>
+      </c>
+      <c r="C3596" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3596" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3596" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3596" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3597" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3597">
+        <v>8354</v>
+      </c>
+      <c r="C3597" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3597" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3597" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3597" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3598" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3598">
+        <v>8354</v>
+      </c>
+      <c r="C3598" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3598" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3598" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3598" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3599" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3599">
+        <v>8354</v>
+      </c>
+      <c r="C3599" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3599" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3599" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3599" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3600" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3600">
+        <v>8354</v>
+      </c>
+      <c r="C3600" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3600" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3600" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3600" s="2">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3601" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3601">
+        <v>8354</v>
+      </c>
+      <c r="C3601" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3601" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3601" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3601" s="2">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3602" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3602">
+        <v>8354</v>
+      </c>
+      <c r="C3602" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3602" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3602" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3602" s="2">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3603" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3603">
+        <v>8354</v>
+      </c>
+      <c r="C3603" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3603" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3603" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3603" s="2">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3604" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3604">
+        <v>8354</v>
+      </c>
+      <c r="C3604" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3604" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3604" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3604" s="2">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3605" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3605">
+        <v>8354</v>
+      </c>
+      <c r="C3605" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3605" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3605" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3605" s="2">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3606" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3606">
+        <v>8354</v>
+      </c>
+      <c r="C3606" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3606" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3606" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3606" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3607" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3607">
+        <v>8354</v>
+      </c>
+      <c r="C3607" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3607" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3607" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3607" s="2">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3608" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3608">
+        <v>8354</v>
+      </c>
+      <c r="C3608" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3608" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3608" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3608" s="2">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3609" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3609">
+        <v>8354</v>
+      </c>
+      <c r="C3609" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3609" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3609" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3609" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3610" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3610">
+        <v>8354</v>
+      </c>
+      <c r="C3610" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3610" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3610" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3610" s="2">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3611" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3611">
+        <v>8354</v>
+      </c>
+      <c r="C3611" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3611" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3611" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3611" s="2">
+        <v>6286</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3612" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3612">
+        <v>8354</v>
+      </c>
+      <c r="C3612" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3612" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3612" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3612" s="2">
+        <v>7049</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3613" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3613">
+        <v>8354</v>
+      </c>
+      <c r="C3613" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3613" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3613" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3613" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3614" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3614">
+        <v>8354</v>
+      </c>
+      <c r="C3614" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3614" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3614" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3614" s="2">
+        <v>-461</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3615" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3615">
+        <v>8354</v>
+      </c>
+      <c r="C3615" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3615" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3615" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3615" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3616" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3616">
+        <v>8354</v>
+      </c>
+      <c r="C3616" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3616" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3616" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3616" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3617" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3617">
+        <v>8354</v>
+      </c>
+      <c r="C3617" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3617" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3617" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3617" s="2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3618" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3618">
+        <v>8354</v>
+      </c>
+      <c r="C3618" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3618" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3618" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3618" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3619" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3619">
+        <v>8354</v>
+      </c>
+      <c r="C3619" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3619" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3619" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3619" s="2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3620" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3620">
+        <v>8354</v>
+      </c>
+      <c r="C3620" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3620" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3620" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3620" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3621" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3621">
+        <v>8354</v>
+      </c>
+      <c r="C3621" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3621" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3621" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3621" s="2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3622" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3622">
+        <v>8354</v>
+      </c>
+      <c r="C3622" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3622" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3622" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3622" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3623" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3623">
+        <v>8354</v>
+      </c>
+      <c r="C3623" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3623" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3623" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3623" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3624" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3624">
+        <v>8354</v>
+      </c>
+      <c r="C3624" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3624" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3624" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3624" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3625" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3625">
+        <v>8354</v>
+      </c>
+      <c r="C3625" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3625" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3625" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3625" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3626" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3626">
+        <v>8354</v>
+      </c>
+      <c r="C3626" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3626" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3626" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3626" s="2">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3627" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3627">
+        <v>8354</v>
+      </c>
+      <c r="C3627" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3627" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3627" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3627" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3628" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3628">
+        <v>8354</v>
+      </c>
+      <c r="C3628" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3628" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3628" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3628" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3629" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3629">
+        <v>8354</v>
+      </c>
+      <c r="C3629" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3629" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3629" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3629" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3630" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3630">
+        <v>8354</v>
+      </c>
+      <c r="C3630" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3630" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3630" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3630" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3631" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3631">
+        <v>8354</v>
+      </c>
+      <c r="C3631" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3631" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3631" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3631" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3632" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3632">
+        <v>8354</v>
+      </c>
+      <c r="C3632" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3632" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3632" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3632" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3633" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3633">
+        <v>8354</v>
+      </c>
+      <c r="C3633" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3633" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3633" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3633" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3634" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3634">
+        <v>8354</v>
+      </c>
+      <c r="C3634" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3634" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3634" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3634" s="2">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3635" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3635">
+        <v>8354</v>
+      </c>
+      <c r="C3635" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3635" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3635" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3635" s="2">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3636" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3636">
+        <v>8354</v>
+      </c>
+      <c r="C3636" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3636" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3636" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3636" s="2">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3637" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3637">
+        <v>8354</v>
+      </c>
+      <c r="C3637" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3637" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3637" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3637" s="2">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3638" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3638">
+        <v>8354</v>
+      </c>
+      <c r="C3638" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3638" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3638" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3638" s="2">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3639" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3639">
+        <v>8354</v>
+      </c>
+      <c r="C3639" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3639" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3639" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3639" s="2">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3640" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3640">
+        <v>8354</v>
+      </c>
+      <c r="C3640" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3640" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3640" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3640" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3641" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3641">
+        <v>8354</v>
+      </c>
+      <c r="C3641" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3641" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3641" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3641" s="2">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3642" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3642">
+        <v>8354</v>
+      </c>
+      <c r="C3642" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3642" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3642" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3642" s="2">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3643" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3643">
+        <v>8354</v>
+      </c>
+      <c r="C3643" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3643" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3643" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3643" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3644" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3644">
+        <v>8354</v>
+      </c>
+      <c r="C3644" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3644" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3644" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3644" s="2">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3645" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3645">
+        <v>8354</v>
+      </c>
+      <c r="C3645" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3645" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3645" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3645" s="2">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3646" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3646">
+        <v>8354</v>
+      </c>
+      <c r="C3646" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3646" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3646" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3646" s="2">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3647" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3647">
+        <v>8354</v>
+      </c>
+      <c r="C3647" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3647" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3647" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3647" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3648" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3648">
+        <v>8354</v>
+      </c>
+      <c r="C3648" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3648" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3648" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3648" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3649" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3649">
+        <v>8354</v>
+      </c>
+      <c r="C3649" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3649" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3649" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3650" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3650">
+        <v>8354</v>
+      </c>
+      <c r="C3650" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3650" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3650" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3651" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3651">
+        <v>8354</v>
+      </c>
+      <c r="C3651" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3651" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3651" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3652" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3652">
+        <v>8354</v>
+      </c>
+      <c r="C3652" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3652" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3652" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3653" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3653">
+        <v>8354</v>
+      </c>
+      <c r="C3653" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3653" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3653" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3654" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3654">
+        <v>8354</v>
+      </c>
+      <c r="C3654" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3654" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3654" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3655" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3655">
+        <v>8354</v>
+      </c>
+      <c r="C3655" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3655" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3655" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3656" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3656">
+        <v>8354</v>
+      </c>
+      <c r="C3656" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3656" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3656" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3656">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3657" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3657">
+        <v>8354</v>
+      </c>
+      <c r="C3657" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3657" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3657" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3657">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3658" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3658">
+        <v>8354</v>
+      </c>
+      <c r="C3658" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3658" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3658" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3658">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3659" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3659">
+        <v>8354</v>
+      </c>
+      <c r="C3659" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3659" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3659" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3660" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3660">
+        <v>8354</v>
+      </c>
+      <c r="C3660" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3660" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3660" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3660">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3661" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3661">
+        <v>8354</v>
+      </c>
+      <c r="C3661" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3661" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3661" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3661">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3662" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3662">
+        <v>8354</v>
+      </c>
+      <c r="C3662" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3662" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3662" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3662">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3663" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3663">
+        <v>8354</v>
+      </c>
+      <c r="C3663" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3663" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3663" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3663">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3664" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3664">
+        <v>8354</v>
+      </c>
+      <c r="C3664" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3664" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3664" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3664">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3665" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3665">
+        <v>8354</v>
+      </c>
+      <c r="C3665" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3665" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3665" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3665">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3666" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3666">
+        <v>8354</v>
+      </c>
+      <c r="C3666" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3666" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3666" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3666">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3667" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3667">
+        <v>8354</v>
+      </c>
+      <c r="C3667" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3667" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3667" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3667">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3668" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3668">
+        <v>8354</v>
+      </c>
+      <c r="C3668" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3668" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3668" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3668">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3669" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3669">
+        <v>8354</v>
+      </c>
+      <c r="C3669" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3669" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3669" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3669">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3670" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3670">
+        <v>8354</v>
+      </c>
+      <c r="C3670" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3670" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3670" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3670">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3671" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3671">
+        <v>8354</v>
+      </c>
+      <c r="C3671" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3671" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3671" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3671">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3672" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3672">
+        <v>8354</v>
+      </c>
+      <c r="C3672" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3672" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3672" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3672">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3673" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3673">
+        <v>8354</v>
+      </c>
+      <c r="C3673" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3673" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3673" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3673">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3674" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3674">
+        <v>8354</v>
+      </c>
+      <c r="C3674" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3674" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3674" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3674">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3675" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3675">
+        <v>8354</v>
+      </c>
+      <c r="C3675" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3675" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3675" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3675">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3676" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3676">
+        <v>8354</v>
+      </c>
+      <c r="C3676" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D3676" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3676" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3676">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -72020,10 +75420,11 @@
     <hyperlink ref="A1429" r:id="rId330" xr:uid="{0BB244C3-226E-48CB-A2B2-C37F9CC66D6A}"/>
     <hyperlink ref="A3409:A3440" r:id="rId331" display="Hayford@Polaris" xr:uid="{1E62A148-6333-4C06-8590-428AF137C28D}"/>
     <hyperlink ref="A2376" r:id="rId332" xr:uid="{7815479A-463D-46A3-BBF5-A36A7CC0884F}"/>
+    <hyperlink ref="A3507" r:id="rId333" xr:uid="{22D57841-94DB-4ADC-BA3F-02B6DF19AE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId333"/>
+    <tablePart r:id="rId334"/>
   </tableParts>
 </worksheet>
 </file>